--- a/tests/artifact/script/UI-CashFlow.xlsx
+++ b/tests/artifact/script/UI-CashFlow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="865">
   <si>
     <t>target</t>
   </si>
@@ -2314,8 +2314,8 @@
     <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|login)</t>
   </si>
   <si>
-    <t>username=${username}
-password=${password}</t>
+    <t>username=${login.username}
+password=${login.password}</t>
   </si>
   <si>
     <t>Navigating to Cash Flow page</t>
@@ -2474,7 +2474,7 @@
     <t>iterate the loop to validate the account names, Amount values in cash flow To table</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>-1</t>
@@ -2519,6 +2519,15 @@
     <t>${table.rows.ToCashFlow}[${counter}]${table.Particulars}</t>
   </si>
   <si>
+    <t>fetch the debit value from cash flow To table and save into a variable</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>${table.rows.ToCashFlow}[${counter}]${table.Amount}</t>
+  </si>
+  <si>
     <t>validate the account name value in cash flow To table</t>
   </si>
   <si>
@@ -2537,18 +2546,12 @@
     <t>${ledger.account.name}</t>
   </si>
   <si>
+    <t>SkipIf(${amount} = null)</t>
+  </si>
+  <si>
     <t>navigate back to cash flow page</t>
   </si>
   <si>
-    <t>fetch the debit value from cash flow To table and save into a variable</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>${table.rows.ToCashFlow}[${counter}]${table.Amount}</t>
-  </si>
-  <si>
     <t>validate the Amount value in cash flow To table</t>
   </si>
   <si>
@@ -2624,13 +2627,13 @@
     <t>validate the account name value in cash flow By table</t>
   </si>
   <si>
+    <t>fetch the amount value from cash flow By table and save into a variable</t>
+  </si>
+  <si>
+    <t>${table.rows.ByCashFlow}[${counter}]${table.Amount}</t>
+  </si>
+  <si>
     <t>${table.rows.ByCashFlow}[${counter}]${table.accountname.link}</t>
-  </si>
-  <si>
-    <t>fetch the amount value from cash flow By table and save into a variable</t>
-  </si>
-  <si>
-    <t>${table.rows.ByCashFlow}[${counter}]${table.Amount}</t>
   </si>
   <si>
     <t>validate the debit value in cash flow By table</t>
@@ -2660,14 +2663,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2739,6 +2742,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <strike/>
       <sz val="11"/>
@@ -2760,49 +2769,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2837,8 +2808,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,15 +2847,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2868,7 +2864,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2882,13 +2885,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2917,7 +2926,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2929,7 +3052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2941,139 +3088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3085,19 +3100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3141,26 +3150,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3174,17 +3174,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3219,6 +3213,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3241,16 +3250,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3259,132 +3259,141 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3426,14 +3435,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3552,14 +3561,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3592,58 +3605,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6636,8 +6649,8 @@
   <sheetPr/>
   <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6772,7 +6785,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6787,7 +6800,7 @@
       <c r="E5" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
@@ -6801,13 +6814,13 @@
       <c r="O5" s="44"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="43"/>
@@ -6818,9 +6831,9 @@
       <c r="O6" s="44"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -6835,12 +6848,12 @@
       <c r="O7" s="44"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -6972,7 +6985,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -9967,10 +9980,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9983,7 +9996,7 @@
     <col min="6" max="6" width="75.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
     <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="29.5833333333333" style="8" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
     <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="11" customWidth="1"/>
@@ -10844,7 +10857,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
+    <row r="33" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
         <v>818</v>
@@ -10853,39 +10866,40 @@
         <v>30</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>817</v>
+        <v>493</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>819</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="47"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
       <c r="N33" s="23"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="34" s="1" customFormat="1" ht="41" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="F34" s="27"/>
+        <v>817</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>822</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -10899,20 +10913,18 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>819</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -10926,43 +10938,45 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="30" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+        <v>530</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>822</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="47"/>
+      <c r="J36" s="48" t="s">
+        <v>827</v>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
+    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>826</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>827</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -10973,22 +10987,22 @@
       <c r="N37" s="23"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="38" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>827</v>
+        <v>493</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>819</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -11002,20 +11016,20 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="31" t="s">
-        <v>795</v>
+      <c r="B39" s="30" t="s">
+        <v>829</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>796</v>
+        <v>30</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>820</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -11029,20 +11043,20 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>800</v>
+      <c r="B40" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>807</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11054,22 +11068,22 @@
       <c r="N40" s="23"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>832</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>804</v>
+      <c r="C41" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -11081,22 +11095,22 @@
       <c r="N41" s="23"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="28" customHeight="1" spans="1:15">
+    <row r="42" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30" t="s">
-        <v>805</v>
+      <c r="B42" s="20" t="s">
+        <v>832</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="35" t="s">
-        <v>49</v>
+      <c r="D42" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>807</v>
+        <v>833</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>804</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -11108,22 +11122,22 @@
       <c r="N42" s="23"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="43" s="1" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>809</v>
+        <v>806</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>807</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11138,19 +11152,19 @@
     <row r="44" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
       <c r="B44" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>493</v>
+        <v>302</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>812</v>
+        <v>796</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>809</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11162,22 +11176,22 @@
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+    <row r="45" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E45" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>812</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>814</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -11189,22 +11203,22 @@
       <c r="N45" s="23"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="46" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>834</v>
+        <v>530</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>812</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11216,22 +11230,22 @@
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E47" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="F47" s="27" t="s">
         <v>817</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>835</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -11246,19 +11260,19 @@
     <row r="48" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>826</v>
+        <v>530</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>817</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11270,22 +11284,22 @@
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="49" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>827</v>
+        <v>493</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>819</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11300,19 +11314,19 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="C50" s="26" t="s">
+        <v>829</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="35" t="s">
         <v>530</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>788</v>
+        <v>820</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>830</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -11327,7 +11341,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>30</v>
@@ -11336,10 +11350,10 @@
         <v>530</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11354,7 +11368,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11363,10 +11377,10 @@
         <v>530</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -11379,23 +11393,21 @@
       <c r="O52" s="22"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>797</v>
+      <c r="F53" s="28" t="s">
+        <v>794</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -11408,21 +11420,23 @@
       <c r="O53" s="22"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="19"/>
-      <c r="B54" s="30" t="s">
+      <c r="A54" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>845</v>
+      <c r="B54" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>797</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
@@ -11437,19 +11451,19 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30" t="s">
-        <v>801</v>
+        <v>845</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="F55" s="28">
-        <v>1</v>
+      <c r="F55" s="28" t="s">
+        <v>846</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -11461,22 +11475,22 @@
       <c r="N55" s="23"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="43" customHeight="1" spans="1:15">
+    <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>804</v>
+      <c r="B56" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F56" s="28">
+        <v>1</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -11488,22 +11502,22 @@
       <c r="N56" s="23"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="57" s="1" customFormat="1" ht="43" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="30" t="s">
-        <v>805</v>
+      <c r="B57" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="C57" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>49</v>
+      <c r="D57" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>807</v>
+        <v>803</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>804</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11518,19 +11532,19 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="30" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>809</v>
+        <v>806</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>807</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11542,22 +11556,22 @@
       <c r="N58" s="23"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="30" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>493</v>
+        <v>302</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>848</v>
+        <v>796</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>809</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -11569,22 +11583,22 @@
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="60" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>848</v>
+        <v>493</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>811</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -11596,7 +11610,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="30" t="s">
         <v>850</v>
@@ -11605,13 +11619,13 @@
         <v>30</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>816</v>
+        <v>530</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>849</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>851</v>
+        <v>814</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11623,22 +11637,22 @@
       <c r="N61" s="23"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="62" s="1" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C62" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>851</v>
+        <v>493</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>816</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>819</v>
+        <v>852</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11653,18 +11667,20 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="30" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
       <c r="C63" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>363</v>
+        <v>530</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>853</v>
-      </c>
-      <c r="F63" s="27"/>
+        <v>852</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>822</v>
+      </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -11675,22 +11691,22 @@
       <c r="N63" s="23"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="64" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="30" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>823</v>
+        <v>493</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>819</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -11705,15 +11721,17 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="30" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>620</v>
-      </c>
-      <c r="E65" s="27"/>
+        <v>363</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>856</v>
+      </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
@@ -11725,27 +11743,29 @@
       <c r="N65" s="23"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
+    <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="30" t="s">
-        <v>854</v>
+        <v>825</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E66" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>826</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="47"/>
+      <c r="J66" s="47" t="s">
+        <v>827</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11755,20 +11775,16 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="30" t="s">
-        <v>856</v>
+        <v>828</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>829</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
@@ -11779,22 +11795,22 @@
       <c r="N67" s="23"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="68" s="1" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
-      <c r="B68" s="31" t="s">
-        <v>795</v>
+      <c r="B68" s="30" t="s">
+        <v>854</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>471</v>
+        <v>30</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>493</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>807</v>
+        <v>855</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -11809,19 +11825,19 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="C69" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>483</v>
+      <c r="D69" s="35" t="s">
+        <v>530</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>845</v>
+        <v>855</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>830</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -11833,22 +11849,22 @@
       <c r="N69" s="23"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+    <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="20" t="s">
-        <v>857</v>
+      <c r="B70" s="31" t="s">
+        <v>795</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>832</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>804</v>
+        <v>796</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>807</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -11863,19 +11879,19 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>806</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>807</v>
+        <v>845</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>846</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -11887,22 +11903,22 @@
       <c r="N71" s="23"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="72" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="30" t="s">
-        <v>808</v>
+      <c r="B72" s="20" t="s">
+        <v>858</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
@@ -11914,22 +11930,22 @@
       <c r="N72" s="23"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="30" t="s">
-        <v>858</v>
+        <v>805</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>848</v>
+        <v>807</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -11944,19 +11960,19 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="30" t="s">
-        <v>859</v>
+        <v>808</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>814</v>
+        <v>302</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>809</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -11971,7 +11987,7 @@
     <row r="75" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C75" s="32" t="s">
         <v>30</v>
@@ -11980,10 +11996,10 @@
         <v>493</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -11998,7 +12014,7 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>30</v>
@@ -12007,10 +12023,10 @@
         <v>530</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -12022,10 +12038,10 @@
       <c r="N76" s="23"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>30</v>
@@ -12034,10 +12050,10 @@
         <v>493</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -12052,7 +12068,7 @@
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
       <c r="B78" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C78" s="32" t="s">
         <v>30</v>
@@ -12061,10 +12077,10 @@
         <v>530</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -12076,13 +12092,23 @@
       <c r="N78" s="23"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="79" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
+      <c r="B79" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>855</v>
+      </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
@@ -12095,11 +12121,21 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
+      <c r="B80" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>830</v>
+      </c>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
@@ -13912,6 +13948,40 @@
       <c r="N186" s="23"/>
       <c r="O186" s="22"/>
     </row>
+    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="19"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="47"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="21"/>
+      <c r="N187" s="23"/>
+      <c r="O187" s="22"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="19"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="47"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="21"/>
+      <c r="N188" s="23"/>
+      <c r="O188" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13919,33 +13989,55 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N87:N186">
+  <conditionalFormatting sqref="N33">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N87,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N87,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N87,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N86">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N89:N188">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N32 N34:N63 N65:N88">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C15 C21 C24 C25 C26 C29 C39 C40 C43 C50 C53 C54 C55 C58 C68 C69 C72 C7:C8 C9:C10 C13:C14 C16:C18 C19:C20 C22:C23 C27:C28 C30:C31 C32:C33 C34:C36 C37:C38 C41:C42 C44:C45 C46:C47 C48:C49 C51:C52 C56:C57 C59:C60 C61:C62 C63:C65 C66:C67 C70:C71 C73:C74 C75:C76 C77:C78 C79:C186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C12 C15 C21 C24 C25 C26 C29 C32 C33 C34 C40 C41 C44 C51 C54 C55 C56 C59 C64 C68 C69 C70 C71 C74 C7:C8 C9:C10 C13:C14 C16:C18 C19:C20 C22:C23 C27:C28 C30:C31 C35:C37 C38:C39 C42:C43 C45:C46 C47:C48 C49:C50 C52:C53 C57:C58 C60:C61 C62:C63 C65:C67 C72:C73 C75:C76 C77:C78 C79:C80 C81:C188">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D15 D21 D24 D25 D26 D29 D39 D40 D43 D50 D53 D54 D55 D58 D68 D69 D72 D7:D8 D9:D10 D13:D14 D16:D18 D19:D20 D22:D23 D27:D28 D30:D31 D32:D33 D34:D36 D37:D38 D41:D42 D44:D45 D46:D47 D48:D49 D51:D52 D56:D57 D59:D60 D61:D62 D63:D65 D66:D67 D70:D71 D73:D74 D75:D76 D77:D78 D79:D186">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D11 D12 D15 D21 D24 D25 D26 D29 D32 D33 D34 D40 D41 D44 D51 D54 D55 D56 D59 D64 D68 D69 D70 D71 D74 D7:D8 D9:D10 D13:D14 D16:D18 D19:D20 D22:D23 D27:D28 D30:D31 D35:D37 D38:D39 D42:D43 D45:D46 D47:D48 D49:D50 D52:D53 D57:D58 D60:D61 D62:D63 D65:D67 D72:D73 D75:D76 D77:D78 D79:D80 D81:D188">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
